--- a/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 0,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,15</t>
+          <t>0,07; 0,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,38</t>
+          <t>0,04; 0,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,52</t>
+          <t>0,06; 0,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,24</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,14</t>
+          <t>0,04; 0,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,28</t>
+          <t>0,07; 0,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,29</t>
+          <t>0,06; 0,27</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>106,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,3</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 362,89</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 241,18</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,09; 0,15</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,27 +1531,27 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,27</t>
+          <t>0,06; 0,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,03; 0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,17</t>
+          <t>0,06; 0,16</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1719,29 +1719,29 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,05</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0,03; 0,06</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,18</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,11</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,1</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,11</t>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,24; 34,71</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 20,71</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,03; 0,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,76</t>
+          <t>0,09; 0,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,07</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,39</t>
+          <t>0,15; 0,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,08</t>
+          <t>0,03; 0,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,15</t>
+          <t>0,05; 0,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,15</t>
+          <t>0,08; 0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,09</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,2</t>
+          <t>0,1; 0,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,09</t>
+          <t>0,03; 0,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,15</t>
+          <t>0,09; 0,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,14</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,08</t>
+          <t>0,03; 0,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,18</t>
+          <t>0,02; 0,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,56</t>
+          <t>0,06; 0,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,2</t>
+          <t>0,06; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,14</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,27</t>
+          <t>0,06; 0,26</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,12</t>
+          <t>0,03; 0,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,06</t>
+          <t>0,01; 0,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,12</t>
+          <t>0,03; 0,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,07; 0,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,09</t>
+          <t>0,04; 0,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,19</t>
+          <t>0,04; 0,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,23</t>
+          <t>0,11; 0,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,18</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,15</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,15</t>
+          <t>0,09; 0,16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,09</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,26</t>
+          <t>0,06; 0,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,18</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,12 +1594,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,13</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,11</t>
+          <t>0,04; 0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,16</t>
+          <t>0,06; 0,15</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,05; 0,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,18</t>
+          <t>0,07; 0,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,11</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>0,06; 0,12</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
           <t>0,06; 0,11</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,14</t>
+          <t>0,07; 0,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,12</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,14</t>
+          <t>0,1; 0,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
